--- a/docs/odh/shr-core-Composition-model.xlsx
+++ b/docs/odh/shr-core-Composition-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="124">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Composition-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-Composition-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,7 +195,7 @@
     <t>shr-core-Composition-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -222,10 +218,195 @@
 </t>
   </si>
   <si>
+    <t>shr-core-Composition-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.focalSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter-model]]}
+</t>
+  </si>
+  <si>
+    <t>The encounter or episode of care</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.statementDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The point in time when the statement was created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C3669169
+</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.author[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
+</t>
+  </si>
+  <si>
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A distinguishing word or group of words naming an item.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.confidentialityCode</t>
+  </si>
+  <si>
+    <t>The code specifying the level of confidentiality.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.attestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Attestation-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A certification or assertion of the accuracy of the content.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.managingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
+</t>
+  </si>
+  <si>
+    <t>The organization that manages a patient, activity, facility, document, or service provision.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.relatedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedDocument-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Documents related to this one.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.eventContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EventContext-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Clinical context or event being documented, for example, a colonoscopy or an appendectomy.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.eventContext.careContext[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.eventContext.code</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActCode</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.eventContext.timePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A period of time defined by a start and end time, date, or year.</t>
+  </si>
+  <si>
+    <t>A period of time defined by a start and end time, date, or year.
+If the start date/time is missing, the start of the period is not known. If the end date/time is missing, it means that the period is ongoing.</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.eventContext.facilityType</t>
+  </si>
+  <si>
+    <t>Kind of facility where patient was seen</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.eventContext.setting</t>
+  </si>
+  <si>
+    <t>Description of the place or type of surroundings where something is positioned or where an event takes place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-SettingVS</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.eventContext.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
+</t>
+  </si>
+  <si>
+    <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.</t>
+  </si>
+  <si>
+    <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.
+SHR follows Argonaut and makes the value set binding on marital status required. MaritalStatus has a required binding in Argonaut, but an extensible binding in US-Core. To be feasible under both DSTU2 Argonaut and STU3 US-Core, the required binding strength is adopted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
+</t>
+  </si>
+  <si>
+    <t>shr-core-Composition-model.eventContext.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model]]}
+</t>
+  </si>
+  <si>
+    <t>Additional information to support this request.</t>
+  </si>
+  <si>
     <t>shr-core-Composition-model.section</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Section-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Section-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -378,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -387,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.76171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.35546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -397,7 +578,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="232.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -411,13 +592,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.1171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.75390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.76171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="60.35546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -790,7 +971,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -822,7 +1003,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -845,13 +1026,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -902,7 +1083,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -919,7 +1100,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -942,13 +1123,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -999,7 +1180,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1016,7 +1197,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1042,10 +1223,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1072,11 +1253,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1094,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1111,7 +1292,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1134,13 +1315,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1191,7 +1372,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1208,7 +1389,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1234,10 +1415,10 @@
         <v>45</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1264,15 +1445,15 @@
         <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z9" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="Z9" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
       </c>
@@ -1286,7 +1467,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1303,7 +1484,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1314,7 +1495,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>36</v>
@@ -1326,13 +1507,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1383,23 +1564,1763 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AH10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI10" t="s" s="2">
+      <c r="G14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI10">
+  <autoFilter ref="A1:AI28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1409,7 +3330,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI9">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
